--- a/Story/3 - Psyche Deepdive/3 - Blood and Sand/Blood and Sand.xlsx
+++ b/Story/3 - Psyche Deepdive/3 - Blood and Sand/Blood and Sand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theda\Documents\GitHub\morimens-volunteer-coordination\Story\3 - Psyche Deepdive\3 - Blood and Sand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB55DC1A-06D3-4A57-BFEE-300C46C56871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A28FC6-B42F-4495-9B3D-9BD64E258D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{B6253C02-3795-43D4-A2F0-29054531F7D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B6253C02-3795-43D4-A2F0-29054531F7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Uvhash Deepdive" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6210" uniqueCount="4644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6210" uniqueCount="4645">
   <si>
     <t>Đi tìm cái nơi chết tiệt có mặt trời kia đi.</t>
   </si>
@@ -13615,9 +13615,6 @@
     <t>公式記録によると、第@1回の神聖東征に総計三千余人が参加した。\n聖徒たちの目標は異なり、生計のために参加した者もいれば、復讐のために参加した者もいた。\nさらに、殺戮のために参加した者もいた。</t>
   </si>
   <si>
-    <t>공식 기록에 따르면, 총 3천여 명이 제@1차 신성 동정에 참여했습니다. \n성도들의 목표는 다양했습니다. 생계를 위해, 복수를 위해, 그리고 살육을 위해서도 참가했습니다.</t>
-  </si>
-  <si>
     <t>Selon les archives officielles, plus de trois mille personnes ont participé à la @1ère Croisade Sacrée.\nLes motivations des saints variaient : certains pour survivre, d'autres pour se venger.\nEt certains pour tuer</t>
   </si>
   <si>
@@ -13988,13 +13985,19 @@
   </si>
   <si>
     <t>Stage_7663_Name</t>
+  </si>
+  <si>
+    <t>공식 기록에 따르면, 총 3천여 명이 제@1차 성전에 참전했다. \n성도들의 목표는 다양했다. 생계를 위해, 복수를 위해, 그리고 누군가는 살육을 위해 참가했다.</t>
+  </si>
+  <si>
+    <t>붉은 제례</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14016,6 +14019,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -14041,10 +14050,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -14058,9 +14068,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{7FFF2BE8-4A66-4263-B136-9367D794CB02}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -14276,7 +14290,7 @@
   <dimension ref="A1:S378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14374,7 +14388,7 @@
       <c r="L2" t="s">
         <v>4503</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>4504</v>
       </c>
       <c r="N2" t="s">
@@ -14430,34 +14444,34 @@
       <c r="L3" t="s">
         <v>4518</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="5" t="s">
+        <v>4643</v>
+      </c>
+      <c r="N3" t="s">
         <v>4519</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>4520</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>4521</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>4522</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>4523</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>4524</v>
-      </c>
-      <c r="S3" t="s">
-        <v>4525</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4525</v>
+      </c>
+      <c r="B4" t="s">
         <v>4526</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4527</v>
       </c>
       <c r="C4" t="s">
         <v>4496</v>
@@ -14469,51 +14483,51 @@
         <v>4497</v>
       </c>
       <c r="F4" t="s">
+        <v>4527</v>
+      </c>
+      <c r="H4" t="s">
         <v>4528</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>4529</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>4530</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>4531</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>4532</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="5" t="s">
         <v>4533</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>4534</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>4535</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>4536</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>4537</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>4538</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>4539</v>
-      </c>
-      <c r="S4" t="s">
-        <v>4540</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B5" t="s">
         <v>4541</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4542</v>
       </c>
       <c r="C5" t="s">
         <v>4496</v>
@@ -14542,7 +14556,7 @@
       <c r="L5" t="s">
         <v>4503</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
         <v>4504</v>
       </c>
       <c r="N5" t="s">
@@ -14566,10 +14580,10 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B6" t="s">
         <v>4543</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4544</v>
       </c>
       <c r="C6" t="s">
         <v>4496</v>
@@ -14598,34 +14612,34 @@
       <c r="L6" t="s">
         <v>4518</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="5" t="s">
+        <v>4643</v>
+      </c>
+      <c r="N6" t="s">
         <v>4519</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>4520</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>4521</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>4522</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>4523</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>4524</v>
-      </c>
-      <c r="S6" t="s">
-        <v>4525</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B7" t="s">
         <v>4545</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4546</v>
       </c>
       <c r="C7" t="s">
         <v>4496</v>
@@ -14637,51 +14651,51 @@
         <v>4497</v>
       </c>
       <c r="F7" t="s">
+        <v>4527</v>
+      </c>
+      <c r="H7" t="s">
         <v>4528</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>4529</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>4530</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>4531</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>4532</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" s="5" t="s">
         <v>4533</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>4534</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>4535</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>4536</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>4537</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>4538</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>4539</v>
-      </c>
-      <c r="S7" t="s">
-        <v>4540</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B8" t="s">
         <v>4547</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4548</v>
       </c>
       <c r="C8" t="s">
         <v>4496</v>
@@ -14710,7 +14724,7 @@
       <c r="L8" t="s">
         <v>4503</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="5" t="s">
         <v>4504</v>
       </c>
       <c r="N8" t="s">
@@ -14734,10 +14748,10 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>4548</v>
+      </c>
+      <c r="B9" t="s">
         <v>4549</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4550</v>
       </c>
       <c r="C9" t="s">
         <v>4496</v>
@@ -14766,34 +14780,34 @@
       <c r="L9" t="s">
         <v>4518</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="5" t="s">
+        <v>4643</v>
+      </c>
+      <c r="N9" t="s">
         <v>4519</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>4520</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>4521</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>4522</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>4523</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>4524</v>
-      </c>
-      <c r="S9" t="s">
-        <v>4525</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B10" t="s">
         <v>4551</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4552</v>
       </c>
       <c r="C10" t="s">
         <v>4496</v>
@@ -14805,82 +14819,82 @@
         <v>4497</v>
       </c>
       <c r="F10" t="s">
+        <v>4527</v>
+      </c>
+      <c r="H10" t="s">
         <v>4528</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>4529</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>4530</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>4531</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>4532</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" s="5" t="s">
         <v>4533</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>4534</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>4535</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>4536</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>4537</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>4538</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>4539</v>
-      </c>
-      <c r="S10" t="s">
-        <v>4540</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B12" t="s">
         <v>4553</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>4554</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4555</v>
       </c>
       <c r="D12">
         <v>1673</v>
       </c>
       <c r="E12" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F12" t="s">
         <v>4498</v>
       </c>
       <c r="H12" t="s">
+        <v>4556</v>
+      </c>
+      <c r="I12" t="s">
         <v>4557</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>4558</v>
-      </c>
-      <c r="J12" t="s">
-        <v>4559</v>
       </c>
       <c r="K12" t="s">
         <v>4469</v>
       </c>
       <c r="L12" t="s">
+        <v>4559</v>
+      </c>
+      <c r="M12" t="s">
         <v>4560</v>
-      </c>
-      <c r="M12" t="s">
-        <v>4561</v>
       </c>
       <c r="N12" t="s">
         <v>4466</v>
@@ -14892,69 +14906,69 @@
         <v>4464</v>
       </c>
       <c r="Q12" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
       <c r="R12" t="s">
         <v>4462</v>
       </c>
       <c r="S12" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B13" t="s">
         <v>4564</v>
       </c>
-      <c r="B13" t="s">
-        <v>4565</v>
-      </c>
       <c r="C13" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D13">
         <v>1673</v>
       </c>
       <c r="E13" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F13" t="s">
         <v>4513</v>
       </c>
       <c r="H13" t="s">
+        <v>4565</v>
+      </c>
+      <c r="I13" t="s">
         <v>4566</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>4567</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>4568</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>4569</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>4570</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>4571</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>4572</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>4573</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>4574</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>4575</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>4576</v>
-      </c>
-      <c r="S13" t="s">
-        <v>4577</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20896,19 +20910,19 @@
     </row>
     <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>4601</v>
+        <v>4600</v>
       </c>
       <c r="B117" t="s">
-        <v>4600</v>
+        <v>4599</v>
       </c>
       <c r="C117" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D117">
         <v>1674</v>
       </c>
       <c r="E117" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F117" t="s">
         <v>4498</v>
@@ -20952,75 +20966,75 @@
     </row>
     <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>4599</v>
+        <v>4598</v>
       </c>
       <c r="B118" t="s">
-        <v>4598</v>
+        <v>4597</v>
       </c>
       <c r="C118" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D118">
         <v>1674</v>
       </c>
       <c r="E118" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F118" t="s">
         <v>4513</v>
       </c>
       <c r="H118" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="I118" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="J118" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
       <c r="K118" t="s">
-        <v>4586</v>
+        <v>4585</v>
       </c>
       <c r="L118" t="s">
-        <v>4585</v>
+        <v>4584</v>
       </c>
       <c r="M118" t="s">
-        <v>4584</v>
+        <v>4583</v>
       </c>
       <c r="N118" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
       <c r="O118" t="s">
-        <v>4582</v>
+        <v>4581</v>
       </c>
       <c r="P118" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
       <c r="Q118" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="R118" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
       <c r="S118" t="s">
-        <v>4578</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>4597</v>
+        <v>4596</v>
       </c>
       <c r="B119" t="s">
-        <v>4596</v>
+        <v>4595</v>
       </c>
       <c r="C119" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D119">
         <v>1677</v>
       </c>
       <c r="E119" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F119" t="s">
         <v>4498</v>
@@ -21064,75 +21078,75 @@
     </row>
     <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>4595</v>
+        <v>4594</v>
       </c>
       <c r="B120" t="s">
-        <v>4594</v>
+        <v>4593</v>
       </c>
       <c r="C120" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D120">
         <v>1677</v>
       </c>
       <c r="E120" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F120" t="s">
         <v>4513</v>
       </c>
       <c r="H120" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="I120" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="J120" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
       <c r="K120" t="s">
-        <v>4586</v>
+        <v>4585</v>
       </c>
       <c r="L120" t="s">
-        <v>4585</v>
+        <v>4584</v>
       </c>
       <c r="M120" t="s">
-        <v>4584</v>
+        <v>4583</v>
       </c>
       <c r="N120" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
       <c r="O120" t="s">
-        <v>4582</v>
+        <v>4581</v>
       </c>
       <c r="P120" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
       <c r="Q120" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="R120" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
       <c r="S120" t="s">
-        <v>4578</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
       <c r="B121" t="s">
-        <v>4592</v>
+        <v>4591</v>
       </c>
       <c r="C121" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D121">
         <v>1679</v>
       </c>
       <c r="E121" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F121" t="s">
         <v>4498</v>
@@ -21176,58 +21190,58 @@
     </row>
     <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>4591</v>
+        <v>4590</v>
       </c>
       <c r="B122" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="C122" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D122">
         <v>1679</v>
       </c>
       <c r="E122" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F122" t="s">
         <v>4513</v>
       </c>
       <c r="H122" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="I122" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="J122" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
       <c r="K122" t="s">
-        <v>4586</v>
+        <v>4585</v>
       </c>
       <c r="L122" t="s">
-        <v>4585</v>
+        <v>4584</v>
       </c>
       <c r="M122" t="s">
-        <v>4584</v>
+        <v>4583</v>
       </c>
       <c r="N122" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
       <c r="O122" t="s">
-        <v>4582</v>
+        <v>4581</v>
       </c>
       <c r="P122" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
       <c r="Q122" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="R122" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
       <c r="S122" t="s">
-        <v>4578</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="123" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27600,19 +27614,19 @@
     </row>
     <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>4618</v>
+        <v>4617</v>
       </c>
       <c r="B235" t="s">
-        <v>4617</v>
+        <v>4616</v>
       </c>
       <c r="C235" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D235">
         <v>1675</v>
       </c>
       <c r="E235" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F235" t="s">
         <v>4498</v>
@@ -27621,7 +27635,7 @@
         <v>1781</v>
       </c>
       <c r="I235" t="s">
-        <v>4616</v>
+        <v>4615</v>
       </c>
       <c r="J235" t="s">
         <v>1779</v>
@@ -27632,8 +27646,8 @@
       <c r="L235" t="s">
         <v>1777</v>
       </c>
-      <c r="M235" t="s">
-        <v>1776</v>
+      <c r="M235" s="5" t="s">
+        <v>4644</v>
       </c>
       <c r="N235" t="s">
         <v>1775</v>
@@ -27656,58 +27670,58 @@
     </row>
     <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
       <c r="B236" t="s">
-        <v>4614</v>
+        <v>4613</v>
       </c>
       <c r="C236" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D236">
         <v>1675</v>
       </c>
       <c r="E236" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F236" t="s">
         <v>4513</v>
       </c>
       <c r="H236" t="s">
-        <v>4613</v>
+        <v>4612</v>
       </c>
       <c r="I236" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
       <c r="J236" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
       <c r="K236" t="s">
-        <v>4610</v>
+        <v>4609</v>
       </c>
       <c r="L236" t="s">
-        <v>4609</v>
+        <v>4608</v>
       </c>
       <c r="M236" t="s">
-        <v>4608</v>
+        <v>4607</v>
       </c>
       <c r="N236" t="s">
-        <v>4607</v>
+        <v>4606</v>
       </c>
       <c r="O236" t="s">
-        <v>4606</v>
+        <v>4605</v>
       </c>
       <c r="P236" t="s">
-        <v>4605</v>
+        <v>4604</v>
       </c>
       <c r="Q236" t="s">
-        <v>4604</v>
+        <v>4603</v>
       </c>
       <c r="R236" t="s">
-        <v>4603</v>
+        <v>4602</v>
       </c>
       <c r="S236" t="s">
-        <v>4602</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="237" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31313,19 +31327,19 @@
     </row>
     <row r="300" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>4643</v>
+        <v>4642</v>
       </c>
       <c r="B300" t="s">
-        <v>4642</v>
+        <v>4641</v>
       </c>
       <c r="C300" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D300">
         <v>1676</v>
       </c>
       <c r="E300" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F300" t="s">
         <v>4498</v>
@@ -31334,7 +31348,7 @@
         <v>936</v>
       </c>
       <c r="I300" t="s">
-        <v>4633</v>
+        <v>4632</v>
       </c>
       <c r="J300" t="s">
         <v>934</v>
@@ -31369,75 +31383,75 @@
     </row>
     <row r="301" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>4641</v>
+        <v>4640</v>
       </c>
       <c r="B301" t="s">
-        <v>4640</v>
+        <v>4639</v>
       </c>
       <c r="C301" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D301">
         <v>1676</v>
       </c>
       <c r="E301" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F301" t="s">
         <v>4513</v>
       </c>
       <c r="H301" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
       <c r="I301" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="J301" t="s">
-        <v>4628</v>
+        <v>4627</v>
       </c>
       <c r="K301" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="L301" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="M301" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="N301" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
       <c r="O301" t="s">
-        <v>4623</v>
+        <v>4622</v>
       </c>
       <c r="P301" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
       <c r="Q301" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
       <c r="R301" t="s">
-        <v>4620</v>
+        <v>4619</v>
       </c>
       <c r="S301" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="302" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>4639</v>
+        <v>4638</v>
       </c>
       <c r="B302" t="s">
-        <v>4638</v>
+        <v>4637</v>
       </c>
       <c r="C302" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D302">
         <v>1678</v>
       </c>
       <c r="E302" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F302" t="s">
         <v>4498</v>
@@ -31446,7 +31460,7 @@
         <v>936</v>
       </c>
       <c r="I302" t="s">
-        <v>4633</v>
+        <v>4632</v>
       </c>
       <c r="J302" t="s">
         <v>934</v>
@@ -31481,75 +31495,75 @@
     </row>
     <row r="303" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>4637</v>
+        <v>4636</v>
       </c>
       <c r="B303" t="s">
-        <v>4636</v>
+        <v>4635</v>
       </c>
       <c r="C303" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D303">
         <v>1678</v>
       </c>
       <c r="E303" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F303" t="s">
         <v>4513</v>
       </c>
       <c r="H303" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
       <c r="I303" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="J303" t="s">
-        <v>4628</v>
+        <v>4627</v>
       </c>
       <c r="K303" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="L303" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="M303" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="N303" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
       <c r="O303" t="s">
-        <v>4623</v>
+        <v>4622</v>
       </c>
       <c r="P303" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
       <c r="Q303" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
       <c r="R303" t="s">
-        <v>4620</v>
+        <v>4619</v>
       </c>
       <c r="S303" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="304" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>4635</v>
+        <v>4634</v>
       </c>
       <c r="B304" t="s">
-        <v>4634</v>
+        <v>4633</v>
       </c>
       <c r="C304" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D304">
         <v>1680</v>
       </c>
       <c r="E304" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F304" t="s">
         <v>4498</v>
@@ -31558,7 +31572,7 @@
         <v>936</v>
       </c>
       <c r="I304" t="s">
-        <v>4633</v>
+        <v>4632</v>
       </c>
       <c r="J304" t="s">
         <v>934</v>
@@ -31593,58 +31607,58 @@
     </row>
     <row r="305" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>4632</v>
+        <v>4631</v>
       </c>
       <c r="B305" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="C305" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="D305">
         <v>1680</v>
       </c>
       <c r="E305" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="F305" t="s">
         <v>4513</v>
       </c>
       <c r="H305" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
       <c r="I305" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="J305" t="s">
-        <v>4628</v>
+        <v>4627</v>
       </c>
       <c r="K305" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="L305" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="M305" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="N305" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
       <c r="O305" t="s">
-        <v>4623</v>
+        <v>4622</v>
       </c>
       <c r="P305" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
       <c r="Q305" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
       <c r="R305" t="s">
-        <v>4620</v>
+        <v>4619</v>
       </c>
       <c r="S305" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="306" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
